--- a/Code/Results/Cases/Case_2_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.667948608854175</v>
+        <v>1.740247270146568</v>
       </c>
       <c r="C2">
-        <v>0.1031500647651598</v>
+        <v>0.03229379708800195</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02145343354233287</v>
+        <v>0.05337578754117889</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008667926310073639</v>
+        <v>0.002630005008481243</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.470537520257608</v>
+        <v>1.258426602509331</v>
       </c>
       <c r="L2">
-        <v>0.1452130112902807</v>
+        <v>0.1986043025361823</v>
       </c>
       <c r="M2">
-        <v>0.3137956927205963</v>
+        <v>0.3529509103836119</v>
       </c>
       <c r="N2">
-        <v>2.81743241414442</v>
+        <v>4.377671302972288</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.492239879701572</v>
+        <v>1.703661558086367</v>
       </c>
       <c r="C3">
-        <v>0.08887755991707991</v>
+        <v>0.02810134703410938</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02085531450716527</v>
+        <v>0.0534509493310722</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.000873951756461766</v>
+        <v>0.00263437294287609</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.301786306596483</v>
+        <v>1.220431959008096</v>
       </c>
       <c r="L3">
-        <v>0.1323215191945621</v>
+        <v>0.1963722079547878</v>
       </c>
       <c r="M3">
-        <v>0.282030282724687</v>
+        <v>0.3465977830136495</v>
       </c>
       <c r="N3">
-        <v>2.820019172788221</v>
+        <v>4.378939327854553</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.386699809873051</v>
+        <v>1.682149267224673</v>
       </c>
       <c r="C4">
-        <v>0.08023805570367415</v>
+        <v>0.02552521028550814</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02050829156283296</v>
+        <v>0.0535119162904385</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008784742649394891</v>
+        <v>0.002637196045817435</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.20026246520527</v>
+        <v>1.197836834602839</v>
       </c>
       <c r="L4">
-        <v>0.124604779346285</v>
+        <v>0.19509846115659</v>
       </c>
       <c r="M4">
-        <v>0.2629655196859098</v>
+        <v>0.3428846951674416</v>
       </c>
       <c r="N4">
-        <v>2.823853593196134</v>
+        <v>4.38049367945149</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.34422722009208</v>
+        <v>1.673622022533863</v>
       </c>
       <c r="C5">
-        <v>0.0767435873225395</v>
+        <v>0.02447483648060711</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02037176326900703</v>
+        <v>0.05354049594508137</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008803501673573355</v>
+        <v>0.002638382098123832</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.159363532496968</v>
+        <v>1.188813402046861</v>
       </c>
       <c r="L5">
-        <v>0.1215061955922323</v>
+        <v>0.1946037465545487</v>
       </c>
       <c r="M5">
-        <v>0.2552972215811593</v>
+        <v>0.3414187938598054</v>
       </c>
       <c r="N5">
-        <v>2.825954148974716</v>
+        <v>4.381321899446519</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.337205535072087</v>
+        <v>1.672220524663459</v>
       </c>
       <c r="C6">
-        <v>0.07616477826543644</v>
+        <v>0.02430038536681423</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02034938241266637</v>
+        <v>0.05354546743875677</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008806636790385019</v>
+        <v>0.002638581195530859</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.152599384999235</v>
+        <v>1.187326190228532</v>
       </c>
       <c r="L6">
-        <v>0.1209943501609061</v>
+        <v>0.1945230705472554</v>
       </c>
       <c r="M6">
-        <v>0.2540297199647732</v>
+        <v>0.3411782335768834</v>
       </c>
       <c r="N6">
-        <v>2.826334690948812</v>
+        <v>4.381471183002205</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.386124908700651</v>
+        <v>1.682033297445827</v>
       </c>
       <c r="C7">
-        <v>0.08019082827030388</v>
+        <v>0.0255110470257307</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0205064307629641</v>
+        <v>0.05351228659003304</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008784994292478854</v>
+        <v>0.002637211897136483</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.199709040267777</v>
+        <v>1.197714395672762</v>
       </c>
       <c r="L7">
-        <v>0.1245628092808602</v>
+        <v>0.1950916906599716</v>
       </c>
       <c r="M7">
-        <v>0.2628617067725116</v>
+        <v>0.3428647343503037</v>
       </c>
       <c r="N7">
-        <v>2.823879777717067</v>
+        <v>4.380504060720455</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.606843590294261</v>
+        <v>1.727434975264742</v>
       </c>
       <c r="C8">
-        <v>0.09820009416579012</v>
+        <v>0.03084859345764812</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02124287991673768</v>
+        <v>0.05339863342415896</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008692354478724648</v>
+        <v>0.002631481841572011</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.411885336397091</v>
+        <v>1.24517359925909</v>
       </c>
       <c r="L8">
-        <v>0.1407243438236279</v>
+        <v>0.1978145992954765</v>
       </c>
       <c r="M8">
-        <v>0.3027457183600646</v>
+        <v>0.3507213787801362</v>
       </c>
       <c r="N8">
-        <v>2.817841385204588</v>
+        <v>4.377947339852383</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.060951463619404</v>
+        <v>1.824027659841875</v>
       </c>
       <c r="C9">
-        <v>0.1347445445073703</v>
+        <v>0.04130432908559101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0228573700838286</v>
+        <v>0.0532929534909794</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008520226750655618</v>
+        <v>0.002621360088706733</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.847149622606878</v>
+        <v>1.344080547585037</v>
       </c>
       <c r="L9">
-        <v>0.1741861971445076</v>
+        <v>0.2039219482420407</v>
       </c>
       <c r="M9">
-        <v>0.3849236862148686</v>
+        <v>0.367619412410285</v>
       </c>
       <c r="N9">
-        <v>2.825139995048573</v>
+        <v>4.379102901108482</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.411649854017526</v>
+        <v>1.899628402638541</v>
       </c>
       <c r="C10">
-        <v>0.1627219355011107</v>
+        <v>0.04898604953862673</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02416246602259164</v>
+        <v>0.05328629258584172</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008398788102065102</v>
+        <v>0.002614595884106387</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.182635410344346</v>
+        <v>1.420341813240839</v>
       </c>
       <c r="L10">
-        <v>0.2001440161922119</v>
+        <v>0.2088777613706583</v>
       </c>
       <c r="M10">
-        <v>0.4484531342394931</v>
+        <v>0.3809473517334396</v>
       </c>
       <c r="N10">
-        <v>2.844188082091733</v>
+        <v>4.383734573809562</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.575920424472827</v>
+        <v>1.935033640230188</v>
       </c>
       <c r="C11">
-        <v>0.175790494680399</v>
+        <v>0.05248213210860797</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02478577179907049</v>
+        <v>0.05329858169652724</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008344437899851483</v>
+        <v>0.002611663064774926</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.339666817675095</v>
+        <v>1.455823652133574</v>
       </c>
       <c r="L11">
-        <v>0.2123245133995084</v>
+        <v>0.2112342906941649</v>
       </c>
       <c r="M11">
-        <v>0.478222763065844</v>
+        <v>0.3872098043298706</v>
       </c>
       <c r="N11">
-        <v>2.856331907979751</v>
+        <v>4.386667943163104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.638901827947109</v>
+        <v>1.948586814755117</v>
       </c>
       <c r="C12">
-        <v>0.1807973789221791</v>
+        <v>0.05380634814351026</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02502640759917441</v>
+        <v>0.05330542986686737</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008323967272145676</v>
+        <v>0.002610573105666859</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.399859265738172</v>
+        <v>1.469373803807883</v>
       </c>
       <c r="L12">
-        <v>0.216997275827751</v>
+        <v>0.2121413326332942</v>
       </c>
       <c r="M12">
-        <v>0.489637921663757</v>
+        <v>0.389609965144345</v>
       </c>
       <c r="N12">
-        <v>2.861478465553347</v>
+        <v>4.387897935578422</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.62530153839549</v>
+        <v>1.945661401054394</v>
       </c>
       <c r="C13">
-        <v>0.1797163179949735</v>
+        <v>0.05352113859446206</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02497437174803707</v>
+        <v>0.05330385751941868</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008328371371304993</v>
+        <v>0.002610806931882687</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.386861775694001</v>
+        <v>1.466450463098568</v>
       </c>
       <c r="L13">
-        <v>0.2159881169561118</v>
+        <v>0.2119453323346931</v>
       </c>
       <c r="M13">
-        <v>0.4871728555029193</v>
+        <v>0.389091770570765</v>
       </c>
       <c r="N13">
-        <v>2.860344875034912</v>
+        <v>4.387627728036733</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.581085817326141</v>
+        <v>1.936145741479947</v>
       </c>
       <c r="C14">
-        <v>0.176201194263399</v>
+        <v>0.05259106911219646</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0248054746846087</v>
+        <v>0.05329910116494752</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008342751660375499</v>
+        <v>0.002611572980394715</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.344603726777365</v>
+        <v>1.456936145693419</v>
       </c>
       <c r="L14">
-        <v>0.212707695185685</v>
+        <v>0.2113086195011533</v>
       </c>
       <c r="M14">
-        <v>0.4791589444587032</v>
+        <v>0.3874066915898595</v>
       </c>
       <c r="N14">
-        <v>2.856744044308755</v>
+        <v>4.386766744607456</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.554106415059778</v>
+        <v>1.930336140867212</v>
       </c>
       <c r="C15">
-        <v>0.1740559313448387</v>
+        <v>0.05202141979914643</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02470263072273404</v>
+        <v>0.05329647331017107</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008351573849064455</v>
+        <v>0.002612044891291007</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.318817196678737</v>
+        <v>1.451123200748754</v>
       </c>
       <c r="L15">
-        <v>0.2107064040217494</v>
+        <v>0.2109205254811428</v>
       </c>
       <c r="M15">
-        <v>0.4742692260608692</v>
+        <v>0.3863782709600727</v>
       </c>
       <c r="N15">
-        <v>2.854611297684386</v>
+        <v>4.386254899927991</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.401017551394204</v>
+        <v>1.897335006080311</v>
       </c>
       <c r="C16">
-        <v>0.1618754919792877</v>
+        <v>0.04875761288144531</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02412235609745572</v>
+        <v>0.05328579701078162</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008402356503258164</v>
+        <v>0.002614790444229155</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.172469636250071</v>
+        <v>1.418038919619278</v>
       </c>
       <c r="L16">
-        <v>0.1993560425466683</v>
+        <v>0.2087258106230792</v>
       </c>
       <c r="M16">
-        <v>0.4465265312633733</v>
+        <v>0.380542101728544</v>
       </c>
       <c r="N16">
-        <v>2.843468416588109</v>
+        <v>4.383559530614377</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.308379753377039</v>
+        <v>1.877349716794811</v>
       </c>
       <c r="C17">
-        <v>0.1544967361003273</v>
+        <v>0.04675585498512191</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02377419531190483</v>
+        <v>0.05328316510297526</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0008433726604130074</v>
+        <v>0.00261651162166465</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.08388448814523</v>
+        <v>1.397945399303012</v>
       </c>
       <c r="L17">
-        <v>0.1924928729467013</v>
+        <v>0.2074055703597537</v>
       </c>
       <c r="M17">
-        <v>0.4297415770014084</v>
+        <v>0.3770129108830957</v>
       </c>
       <c r="N17">
-        <v>2.837555951302363</v>
+        <v>4.382117919503344</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.255536494817875</v>
+        <v>1.865950147105309</v>
       </c>
       <c r="C18">
-        <v>0.1502842184826534</v>
+        <v>0.04560464465848213</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02357670690121694</v>
+        <v>0.05328309370651674</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008451855061322178</v>
+        <v>0.002617515181256753</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.033342304069294</v>
+        <v>1.386462496241194</v>
       </c>
       <c r="L18">
-        <v>0.1885799445493603</v>
+        <v>0.2066558140734713</v>
       </c>
       <c r="M18">
-        <v>0.420168064591607</v>
+        <v>0.3750017909752188</v>
       </c>
       <c r="N18">
-        <v>2.834479546409511</v>
+        <v>4.381366505974228</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.237717446909699</v>
+        <v>1.862106836022178</v>
       </c>
       <c r="C19">
-        <v>0.1488630931930714</v>
+        <v>0.04521488725514189</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02351030556285494</v>
+        <v>0.05328331752294524</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0008458008191044938</v>
+        <v>0.002617857305832022</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.016297277988144</v>
+        <v>1.382587344132105</v>
       </c>
       <c r="L19">
-        <v>0.1872608396056989</v>
+        <v>0.2064036104050899</v>
       </c>
       <c r="M19">
-        <v>0.4169400181582361</v>
+        <v>0.3743240848591114</v>
       </c>
       <c r="N19">
-        <v>2.833492255300683</v>
+        <v>4.381125435422973</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.318195059423715</v>
+        <v>1.879467306186029</v>
       </c>
       <c r="C20">
-        <v>0.1552788903128004</v>
+        <v>0.04696892956614818</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0238109691206585</v>
+        <v>0.05328329605082693</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008430378508384273</v>
+        <v>0.002616326994297962</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.093271490221809</v>
+        <v>1.400076690765502</v>
       </c>
       <c r="L20">
-        <v>0.1932198428954308</v>
+        <v>0.2075451175425798</v>
       </c>
       <c r="M20">
-        <v>0.4315198895164585</v>
+        <v>0.3773866557755738</v>
       </c>
       <c r="N20">
-        <v>2.838151451569502</v>
+        <v>4.382263330789044</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.59405118852203</v>
+        <v>1.938936758225623</v>
       </c>
       <c r="C21">
-        <v>0.1772320174233215</v>
+        <v>0.05286424350106245</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02485495597856335</v>
+        <v>0.05330043872804247</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0008338524968877537</v>
+        <v>0.002611347414236345</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.356995389769423</v>
+        <v>1.459727636206821</v>
       </c>
       <c r="L21">
-        <v>0.2136695414119174</v>
+        <v>0.2114952392607705</v>
       </c>
       <c r="M21">
-        <v>0.4815088249152666</v>
+        <v>0.3879008609165027</v>
       </c>
       <c r="N21">
-        <v>2.857786417587704</v>
+        <v>4.387016398704304</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.778912104517417</v>
+        <v>1.978654442623451</v>
       </c>
       <c r="C22">
-        <v>0.1919232966152151</v>
+        <v>0.05671911171830857</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02556428116484355</v>
+        <v>0.05332443017907096</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008279128500459498</v>
+        <v>0.002608213202603078</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.533648624630644</v>
+        <v>1.499377316002381</v>
       </c>
       <c r="L22">
-        <v>0.2273895812434432</v>
+        <v>0.2141624090207586</v>
       </c>
       <c r="M22">
-        <v>0.5150166794224589</v>
+        <v>0.3949398312316674</v>
       </c>
       <c r="N22">
-        <v>2.873839005009671</v>
+        <v>4.390817696673366</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.679795897326812</v>
+        <v>1.957378449897078</v>
       </c>
       <c r="C23">
-        <v>0.184047585598563</v>
+        <v>0.05466148819827765</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02518310492497911</v>
+        <v>0.05331045814125623</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008310777764234096</v>
+        <v>0.002609875024431632</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.43893910844136</v>
+        <v>1.478154640906723</v>
       </c>
       <c r="L23">
-        <v>0.2200320342239905</v>
+        <v>0.2127310658510595</v>
       </c>
       <c r="M23">
-        <v>0.4970502050048822</v>
+        <v>0.3911676834742011</v>
       </c>
       <c r="N23">
-        <v>2.864959619100119</v>
+        <v>4.388725171335977</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.313756272566195</v>
+        <v>1.878509662950876</v>
       </c>
       <c r="C24">
-        <v>0.1549251867772057</v>
+        <v>0.04687259971801438</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02379433537883813</v>
+        <v>0.05328323235820775</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008431891890930419</v>
+        <v>0.002616410420734977</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.08902642930957</v>
+        <v>1.399112918592408</v>
       </c>
       <c r="L24">
-        <v>0.1928910781211783</v>
+        <v>0.2074819993945169</v>
       </c>
       <c r="M24">
-        <v>0.4307156777777337</v>
+        <v>0.3772176300833081</v>
       </c>
       <c r="N24">
-        <v>2.837881224146201</v>
+        <v>4.382197349301293</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.935425897702174</v>
+        <v>1.797084843811689</v>
       </c>
       <c r="C25">
-        <v>0.1246899670703954</v>
+        <v>0.03847628167778794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02240089862499772</v>
+        <v>0.0533090444509714</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008565848280740818</v>
+        <v>0.002623979704746221</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.726955043974186</v>
+        <v>1.316694911397008</v>
       </c>
       <c r="L25">
-        <v>0.1649156649127761</v>
+        <v>0.2021874865776994</v>
       </c>
       <c r="M25">
-        <v>0.3621960200235463</v>
+        <v>0.3628880102616705</v>
       </c>
       <c r="N25">
-        <v>2.820920103397739</v>
+        <v>4.378127600357516</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.740247270146568</v>
+        <v>1.667948608854346</v>
       </c>
       <c r="C2">
-        <v>0.03229379708800195</v>
+        <v>0.1031500647653729</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05337578754117889</v>
+        <v>0.02145343354233376</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002630005008481243</v>
+        <v>0.0008667926308974492</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.258426602509331</v>
+        <v>1.470537520257579</v>
       </c>
       <c r="L2">
-        <v>0.1986043025361823</v>
+        <v>0.145213011290231</v>
       </c>
       <c r="M2">
-        <v>0.3529509103836119</v>
+        <v>0.3137956927205821</v>
       </c>
       <c r="N2">
-        <v>4.377671302972288</v>
+        <v>2.817432414144406</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.703661558086367</v>
+        <v>1.492239879701884</v>
       </c>
       <c r="C3">
-        <v>0.02810134703410938</v>
+        <v>0.08887755991726465</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0534509493310722</v>
+        <v>0.02085531450716704</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.00263437294287609</v>
+        <v>0.0008739517564320615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.220431959008096</v>
+        <v>1.301786306596597</v>
       </c>
       <c r="L3">
-        <v>0.1963722079547878</v>
+        <v>0.1323215191945906</v>
       </c>
       <c r="M3">
-        <v>0.3465977830136495</v>
+        <v>0.2820302827246728</v>
       </c>
       <c r="N3">
-        <v>4.378939327854553</v>
+        <v>2.820019172788307</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.682149267224673</v>
+        <v>1.386699809873051</v>
       </c>
       <c r="C4">
-        <v>0.02552521028550814</v>
+        <v>0.08023805570365994</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0535119162904385</v>
+        <v>0.02050829156282497</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002637196045817435</v>
+        <v>0.0008784742650123357</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.197836834602839</v>
+        <v>1.200262465205242</v>
       </c>
       <c r="L4">
-        <v>0.19509846115659</v>
+        <v>0.1246047793462353</v>
       </c>
       <c r="M4">
-        <v>0.3428846951674416</v>
+        <v>0.2629655196858884</v>
       </c>
       <c r="N4">
-        <v>4.38049367945149</v>
+        <v>2.823853593196134</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.673622022533863</v>
+        <v>1.344227220092023</v>
       </c>
       <c r="C5">
-        <v>0.02447483648060711</v>
+        <v>0.07674358732242581</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05354049594508137</v>
+        <v>0.02037176326897594</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002638382098123832</v>
+        <v>0.000880350167355226</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.188813402046861</v>
+        <v>1.159363532496826</v>
       </c>
       <c r="L5">
-        <v>0.1946037465545487</v>
+        <v>0.1215061955922678</v>
       </c>
       <c r="M5">
-        <v>0.3414187938598054</v>
+        <v>0.25529722158117</v>
       </c>
       <c r="N5">
-        <v>4.381321899446519</v>
+        <v>2.825954148974787</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.672220524663459</v>
+        <v>1.337205535072059</v>
       </c>
       <c r="C6">
-        <v>0.02430038536681423</v>
+        <v>0.07616477826532275</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05354546743875677</v>
+        <v>0.02034938241265571</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002638581195530859</v>
+        <v>0.0008806636790402242</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.187326190228532</v>
+        <v>1.152599384999235</v>
       </c>
       <c r="L6">
-        <v>0.1945230705472554</v>
+        <v>0.1209943501608635</v>
       </c>
       <c r="M6">
-        <v>0.3411782335768834</v>
+        <v>0.2540297199647696</v>
       </c>
       <c r="N6">
-        <v>4.381471183002205</v>
+        <v>2.826334690948883</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.682033297445827</v>
+        <v>1.386124908700765</v>
       </c>
       <c r="C7">
-        <v>0.0255110470257307</v>
+        <v>0.08019082827014756</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05351228659003304</v>
+        <v>0.02050643076298186</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002637211897136483</v>
+        <v>0.0008784994292947915</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.197714395672762</v>
+        <v>1.199709040267834</v>
       </c>
       <c r="L7">
-        <v>0.1950916906599716</v>
+        <v>0.1245628092809667</v>
       </c>
       <c r="M7">
-        <v>0.3428647343503037</v>
+        <v>0.2628617067725223</v>
       </c>
       <c r="N7">
-        <v>4.380504060720455</v>
+        <v>2.823879777717124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.727434975264742</v>
+        <v>1.606843590294545</v>
       </c>
       <c r="C8">
-        <v>0.03084859345764812</v>
+        <v>0.09820009416556275</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05339863342415896</v>
+        <v>0.02124287991673324</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002631481841572011</v>
+        <v>0.0008692354479263654</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.24517359925909</v>
+        <v>1.411885336397091</v>
       </c>
       <c r="L8">
-        <v>0.1978145992954765</v>
+        <v>0.1407243438236847</v>
       </c>
       <c r="M8">
-        <v>0.3507213787801362</v>
+        <v>0.3027457183600788</v>
       </c>
       <c r="N8">
-        <v>4.377947339852383</v>
+        <v>2.817841385204474</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.824027659841875</v>
+        <v>2.060951463619517</v>
       </c>
       <c r="C9">
-        <v>0.04130432908559101</v>
+        <v>0.1347445445073845</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0532929534909794</v>
+        <v>0.02285737008380018</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002621360088706733</v>
+        <v>0.0008520226750664595</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.344080547585037</v>
+        <v>1.847149622606736</v>
       </c>
       <c r="L9">
-        <v>0.2039219482420407</v>
+        <v>0.1741861971445857</v>
       </c>
       <c r="M9">
-        <v>0.367619412410285</v>
+        <v>0.3849236862148615</v>
       </c>
       <c r="N9">
-        <v>4.379102901108482</v>
+        <v>2.825139995048517</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.899628402638541</v>
+        <v>2.411649854017583</v>
       </c>
       <c r="C10">
-        <v>0.04898604953862673</v>
+        <v>0.1627219355008691</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05328629258584172</v>
+        <v>0.02416246602256678</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002614595884106387</v>
+        <v>0.0008398788101494448</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.420341813240839</v>
+        <v>2.182635410344261</v>
       </c>
       <c r="L10">
-        <v>0.2088777613706583</v>
+        <v>0.2001440161921266</v>
       </c>
       <c r="M10">
-        <v>0.3809473517334396</v>
+        <v>0.4484531342395002</v>
       </c>
       <c r="N10">
-        <v>4.383734573809562</v>
+        <v>2.844188082091733</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.935033640230188</v>
+        <v>2.575920424472713</v>
       </c>
       <c r="C11">
-        <v>0.05248213210860797</v>
+        <v>0.1757904946799016</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05329858169652724</v>
+        <v>0.02478577179907049</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002611663064774926</v>
+        <v>0.0008344437899220876</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.455823652133574</v>
+        <v>2.339666817675123</v>
       </c>
       <c r="L11">
-        <v>0.2112342906941649</v>
+        <v>0.2123245133994942</v>
       </c>
       <c r="M11">
-        <v>0.3872098043298706</v>
+        <v>0.4782227630658511</v>
       </c>
       <c r="N11">
-        <v>4.386667943163104</v>
+        <v>2.856331907979722</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.948586814755117</v>
+        <v>2.638901827946881</v>
       </c>
       <c r="C12">
-        <v>0.05380634814351026</v>
+        <v>0.1807973789219233</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05330542986686737</v>
+        <v>0.02502640759913888</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002610573105666859</v>
+        <v>0.0008323967272126724</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.469373803807883</v>
+        <v>2.399859265738115</v>
       </c>
       <c r="L12">
-        <v>0.2121413326332942</v>
+        <v>0.2169972758278078</v>
       </c>
       <c r="M12">
-        <v>0.389609965144345</v>
+        <v>0.489637921663757</v>
       </c>
       <c r="N12">
-        <v>4.387897935578422</v>
+        <v>2.861478465553319</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.945661401054394</v>
+        <v>2.625301538395433</v>
       </c>
       <c r="C13">
-        <v>0.05352113859446206</v>
+        <v>0.1797163179951724</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05330385751941868</v>
+        <v>0.02497437174801931</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002610806931882687</v>
+        <v>0.0008328371371220712</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.466450463098568</v>
+        <v>2.386861775694086</v>
       </c>
       <c r="L13">
-        <v>0.2119453323346931</v>
+        <v>0.2159881169561402</v>
       </c>
       <c r="M13">
-        <v>0.389091770570765</v>
+        <v>0.4871728555029406</v>
       </c>
       <c r="N13">
-        <v>4.387627728036733</v>
+        <v>2.86034487503494</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.936145741479947</v>
+        <v>2.581085817326141</v>
       </c>
       <c r="C14">
-        <v>0.05259106911219646</v>
+        <v>0.1762011942636406</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05329910116494752</v>
+        <v>0.0248054746846158</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002611572980394715</v>
+        <v>0.0008342751660982118</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.456936145693419</v>
+        <v>2.344603726777336</v>
       </c>
       <c r="L14">
-        <v>0.2113086195011533</v>
+        <v>0.2127076951855571</v>
       </c>
       <c r="M14">
-        <v>0.3874066915898595</v>
+        <v>0.4791589444586961</v>
       </c>
       <c r="N14">
-        <v>4.386766744607456</v>
+        <v>2.856744044308755</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.930336140867212</v>
+        <v>2.554106415059721</v>
       </c>
       <c r="C15">
-        <v>0.05202141979914643</v>
+        <v>0.1740559313445971</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05329647331017107</v>
+        <v>0.02470263072273582</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002612044891291007</v>
+        <v>0.0008351573849065039</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.451123200748754</v>
+        <v>2.318817196678793</v>
       </c>
       <c r="L15">
-        <v>0.2109205254811428</v>
+        <v>0.2107064040217637</v>
       </c>
       <c r="M15">
-        <v>0.3863782709600727</v>
+        <v>0.4742692260608692</v>
       </c>
       <c r="N15">
-        <v>4.386254899927991</v>
+        <v>2.854611297684471</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.897335006080311</v>
+        <v>2.401017551394261</v>
       </c>
       <c r="C16">
-        <v>0.04875761288144531</v>
+        <v>0.1618754919790746</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05328579701078162</v>
+        <v>0.0241223560974575</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002614790444229155</v>
+        <v>0.0008402356503255415</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.418038919619278</v>
+        <v>2.172469636249986</v>
       </c>
       <c r="L16">
-        <v>0.2087258106230792</v>
+        <v>0.1993560425466825</v>
       </c>
       <c r="M16">
-        <v>0.380542101728544</v>
+        <v>0.4465265312633662</v>
       </c>
       <c r="N16">
-        <v>4.383559530614377</v>
+        <v>2.843468416588109</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.877349716794811</v>
+        <v>2.308379753376812</v>
       </c>
       <c r="C17">
-        <v>0.04675585498512191</v>
+        <v>0.1544967361007679</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05328316510297526</v>
+        <v>0.0237741953118924</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.00261651162166465</v>
+        <v>0.000843372660407728</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.397945399303012</v>
+        <v>2.083884488145088</v>
       </c>
       <c r="L17">
-        <v>0.2074055703597537</v>
+        <v>0.1924928729466586</v>
       </c>
       <c r="M17">
-        <v>0.3770129108830957</v>
+        <v>0.4297415770014155</v>
       </c>
       <c r="N17">
-        <v>4.382117919503344</v>
+        <v>2.837555951302363</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.865950147105309</v>
+        <v>2.255536494817761</v>
       </c>
       <c r="C18">
-        <v>0.04560464465848213</v>
+        <v>0.1502842184831223</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05328309370651674</v>
+        <v>0.02357670690122049</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002617515181256753</v>
+        <v>0.0008451855061341573</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.386462496241194</v>
+        <v>2.033342304069407</v>
       </c>
       <c r="L18">
-        <v>0.2066558140734713</v>
+        <v>0.1885799445493603</v>
       </c>
       <c r="M18">
-        <v>0.3750017909752188</v>
+        <v>0.4201680645916142</v>
       </c>
       <c r="N18">
-        <v>4.381366505974228</v>
+        <v>2.834479546409511</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.862106836022178</v>
+        <v>2.237717446909699</v>
       </c>
       <c r="C19">
-        <v>0.04521488725514189</v>
+        <v>0.1488630931930714</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05328331752294524</v>
+        <v>0.02351030556284428</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002617857305832022</v>
+        <v>0.0008458008192175145</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.382587344132105</v>
+        <v>2.01629727798823</v>
       </c>
       <c r="L19">
-        <v>0.2064036104050899</v>
+        <v>0.18726083960577</v>
       </c>
       <c r="M19">
-        <v>0.3743240848591114</v>
+        <v>0.4169400181582361</v>
       </c>
       <c r="N19">
-        <v>4.381125435422973</v>
+        <v>2.833492255300712</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.879467306186029</v>
+        <v>2.318195059423942</v>
       </c>
       <c r="C20">
-        <v>0.04696892956614818</v>
+        <v>0.1552788903130562</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05328329605082693</v>
+        <v>0.02381096912065495</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002616326994297962</v>
+        <v>0.0008430378508378577</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.400076690765502</v>
+        <v>2.093271490221696</v>
       </c>
       <c r="L20">
-        <v>0.2075451175425798</v>
+        <v>0.1932198428954734</v>
       </c>
       <c r="M20">
-        <v>0.3773866557755738</v>
+        <v>0.4315198895164514</v>
       </c>
       <c r="N20">
-        <v>4.382263330789044</v>
+        <v>2.838151451569473</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.938936758225623</v>
+        <v>2.594051188522087</v>
       </c>
       <c r="C21">
-        <v>0.05286424350106245</v>
+        <v>0.1772320174235773</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05330043872804247</v>
+        <v>0.02485495597860421</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002611347414236345</v>
+        <v>0.0008338524969539375</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.459727636206821</v>
+        <v>2.35699538976948</v>
       </c>
       <c r="L21">
-        <v>0.2114952392607705</v>
+        <v>0.2136695414119174</v>
       </c>
       <c r="M21">
-        <v>0.3879008609165027</v>
+        <v>0.4815088249152666</v>
       </c>
       <c r="N21">
-        <v>4.387016398704304</v>
+        <v>2.857786417587704</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.978654442623451</v>
+        <v>2.778912104517474</v>
       </c>
       <c r="C22">
-        <v>0.05671911171830857</v>
+        <v>0.1919232966149451</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05332443017907096</v>
+        <v>0.02556428116486664</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002608213202603078</v>
+        <v>0.0008279128501028426</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.499377316002381</v>
+        <v>2.5336486246307</v>
       </c>
       <c r="L22">
-        <v>0.2141624090207586</v>
+        <v>0.227389581243358</v>
       </c>
       <c r="M22">
-        <v>0.3949398312316674</v>
+        <v>0.5150166794224589</v>
       </c>
       <c r="N22">
-        <v>4.390817696673366</v>
+        <v>2.873839005009614</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.957378449897078</v>
+        <v>2.679795897326983</v>
       </c>
       <c r="C23">
-        <v>0.05466148819827765</v>
+        <v>0.1840475855988188</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05331045814125623</v>
+        <v>0.02518310492495246</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002609875024431632</v>
+        <v>0.0008310777764872079</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.478154640906723</v>
+        <v>2.43893910844136</v>
       </c>
       <c r="L23">
-        <v>0.2127310658510595</v>
+        <v>0.2200320342239905</v>
       </c>
       <c r="M23">
-        <v>0.3911676834742011</v>
+        <v>0.497050205004868</v>
       </c>
       <c r="N23">
-        <v>4.388725171335977</v>
+        <v>2.864959619100091</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.878509662950876</v>
+        <v>2.313756272566479</v>
       </c>
       <c r="C24">
-        <v>0.04687259971801438</v>
+        <v>0.1549251867769641</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05328323235820775</v>
+        <v>0.02379433537883813</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002616410420734977</v>
+        <v>0.0008431891890343137</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.399112918592408</v>
+        <v>2.089026429309541</v>
       </c>
       <c r="L24">
-        <v>0.2074819993945169</v>
+        <v>0.1928910781211215</v>
       </c>
       <c r="M24">
-        <v>0.3772176300833081</v>
+        <v>0.4307156777777337</v>
       </c>
       <c r="N24">
-        <v>4.382197349301293</v>
+        <v>2.83788122414623</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.797084843811689</v>
+        <v>1.935425897701947</v>
       </c>
       <c r="C25">
-        <v>0.03847628167778794</v>
+        <v>0.1246899670701538</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0533090444509714</v>
+        <v>0.02240089862501193</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002623979704746221</v>
+        <v>0.0008565848280722359</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.316694911397008</v>
+        <v>1.726955043974101</v>
       </c>
       <c r="L25">
-        <v>0.2021874865776994</v>
+        <v>0.1649156649127121</v>
       </c>
       <c r="M25">
-        <v>0.3628880102616705</v>
+        <v>0.3621960200235463</v>
       </c>
       <c r="N25">
-        <v>4.378127600357516</v>
+        <v>2.820920103397697</v>
       </c>
       <c r="O25">
         <v>0</v>
